--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1816955</v>
+        <v>12.5253525</v>
       </c>
       <c r="H2">
-        <v>20.363391</v>
+        <v>25.050705</v>
       </c>
       <c r="I2">
-        <v>0.1170788231394981</v>
+        <v>0.1145358416363843</v>
       </c>
       <c r="J2">
-        <v>0.08403588627841573</v>
+        <v>0.08242668153126144</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.109123</v>
+        <v>0.12359</v>
       </c>
       <c r="N2">
-        <v>0.218246</v>
+        <v>0.24718</v>
       </c>
       <c r="O2">
-        <v>0.09282645027416739</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P2">
-        <v>0.07264676746749893</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q2">
-        <v>1.1110571580465</v>
+        <v>1.548008315475</v>
       </c>
       <c r="R2">
-        <v>4.444228632186</v>
+        <v>6.192033261900001</v>
       </c>
       <c r="S2">
-        <v>0.01086801155431666</v>
+        <v>0.01472540445052341</v>
       </c>
       <c r="T2">
-        <v>0.006104935489393251</v>
+        <v>0.008090770628335093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1816955</v>
+        <v>12.5253525</v>
       </c>
       <c r="H3">
-        <v>20.363391</v>
+        <v>25.050705</v>
       </c>
       <c r="I3">
-        <v>0.1170788231394981</v>
+        <v>0.1145358416363843</v>
       </c>
       <c r="J3">
-        <v>0.08403588627841573</v>
+        <v>0.08242668153126144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.786837</v>
       </c>
       <c r="O3">
-        <v>0.506662927548248</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P3">
-        <v>0.5947780579773438</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q3">
-        <v>6.0643434140445</v>
+        <v>7.4602544283475</v>
       </c>
       <c r="R3">
-        <v>36.386060484267</v>
+        <v>44.761526570085</v>
       </c>
       <c r="S3">
-        <v>0.05931949928576168</v>
+        <v>0.07096555145281415</v>
       </c>
       <c r="T3">
-        <v>0.04998270124108102</v>
+        <v>0.05848728989894973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1816955</v>
+        <v>12.5253525</v>
       </c>
       <c r="H4">
-        <v>20.363391</v>
+        <v>25.050705</v>
       </c>
       <c r="I4">
-        <v>0.1170788231394981</v>
+        <v>0.1145358416363843</v>
       </c>
       <c r="J4">
-        <v>0.08403588627841573</v>
+        <v>0.08242668153126144</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,95 +685,95 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.413347</v>
+        <v>0.2420945</v>
       </c>
       <c r="N4">
-        <v>0.8266939999999999</v>
+        <v>0.484189</v>
       </c>
       <c r="O4">
-        <v>0.3516173010408095</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P4">
-        <v>0.2751786827010647</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q4">
-        <v>4.208573289838499</v>
+        <v>3.03231895081125</v>
       </c>
       <c r="R4">
-        <v>16.834293159354</v>
+        <v>12.129275803245</v>
       </c>
       <c r="S4">
-        <v>0.0411669398013446</v>
+        <v>0.02884488573304669</v>
       </c>
       <c r="T4">
-        <v>0.02312488448571091</v>
+        <v>0.01584862100397662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1816955</v>
+        <v>22.55313366666667</v>
       </c>
       <c r="H5">
-        <v>20.363391</v>
+        <v>67.659401</v>
       </c>
       <c r="I5">
-        <v>0.1170788231394981</v>
+        <v>0.20623308973137</v>
       </c>
       <c r="J5">
-        <v>0.08403588627841573</v>
+        <v>0.2226260657663292</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057255</v>
+        <v>0.12359</v>
       </c>
       <c r="N5">
-        <v>0.171765</v>
+        <v>0.24718</v>
       </c>
       <c r="O5">
-        <v>0.04870447486274619</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P5">
-        <v>0.05717480280992528</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q5">
-        <v>0.5829529758525001</v>
+        <v>2.787341789863333</v>
       </c>
       <c r="R5">
-        <v>3.497717855115</v>
+        <v>16.72405073918</v>
       </c>
       <c r="S5">
-        <v>0.005702262598557593</v>
+        <v>0.02651454439053774</v>
       </c>
       <c r="T5">
-        <v>0.004804735226925725</v>
+        <v>0.02185234684379326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1816955</v>
+        <v>22.55313366666667</v>
       </c>
       <c r="H6">
-        <v>20.363391</v>
+        <v>67.659401</v>
       </c>
       <c r="I6">
-        <v>0.1170788231394981</v>
+        <v>0.20623308973137</v>
       </c>
       <c r="J6">
-        <v>0.08403588627841573</v>
+        <v>0.2226260657663292</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.000222</v>
+        <v>0.5956123333333333</v>
       </c>
       <c r="N6">
-        <v>0.000666</v>
+        <v>1.786837</v>
       </c>
       <c r="O6">
-        <v>0.0001888462740289871</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P6">
-        <v>0.0002216890441673812</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q6">
-        <v>0.002260336401</v>
+        <v>13.43292456718189</v>
       </c>
       <c r="R6">
-        <v>0.013562018406</v>
+        <v>120.896321104637</v>
       </c>
       <c r="S6">
-        <v>2.210989951759297E-05</v>
+        <v>0.1277804810398772</v>
       </c>
       <c r="T6">
-        <v>1.862983530482073E-05</v>
+        <v>0.1579682089057489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>67.659401</v>
       </c>
       <c r="I7">
-        <v>0.2593373910859078</v>
+        <v>0.20623308973137</v>
       </c>
       <c r="J7">
-        <v>0.27921762775668</v>
+        <v>0.2226260657663292</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.109123</v>
+        <v>0.2420945</v>
       </c>
       <c r="N7">
-        <v>0.218246</v>
+        <v>0.484189</v>
       </c>
       <c r="O7">
-        <v>0.09282645027416739</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P7">
-        <v>0.07264676746749893</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q7">
-        <v>2.461065605107667</v>
+        <v>5.459989618464833</v>
       </c>
       <c r="R7">
-        <v>14.766393630646</v>
+        <v>32.759937710789</v>
       </c>
       <c r="S7">
-        <v>0.02407336943786832</v>
+        <v>0.05193806430095507</v>
       </c>
       <c r="T7">
-        <v>0.0202842580764662</v>
+        <v>0.04280551001678702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.55313366666667</v>
+        <v>28.44836366666667</v>
       </c>
       <c r="H8">
-        <v>67.659401</v>
+        <v>85.345091</v>
       </c>
       <c r="I8">
-        <v>0.2593373910859078</v>
+        <v>0.2601409641556676</v>
       </c>
       <c r="J8">
-        <v>0.27921762775668</v>
+        <v>0.2808189484532881</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5956123333333333</v>
+        <v>0.12359</v>
       </c>
       <c r="N8">
-        <v>1.786837</v>
+        <v>0.24718</v>
       </c>
       <c r="O8">
-        <v>0.506662927548248</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P8">
-        <v>0.5947780579773438</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q8">
-        <v>13.43292456718189</v>
+        <v>3.515933265563334</v>
       </c>
       <c r="R8">
-        <v>120.896321104637</v>
+        <v>21.09559959338</v>
       </c>
       <c r="S8">
-        <v>0.1313966417903109</v>
+        <v>0.03344525920106775</v>
       </c>
       <c r="T8">
-        <v>0.166072518390159</v>
+        <v>0.0275643961132186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.55313366666667</v>
+        <v>28.44836366666667</v>
       </c>
       <c r="H9">
-        <v>67.659401</v>
+        <v>85.345091</v>
       </c>
       <c r="I9">
-        <v>0.2593373910859078</v>
+        <v>0.2601409641556676</v>
       </c>
       <c r="J9">
-        <v>0.27921762775668</v>
+        <v>0.2808189484532881</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.413347</v>
+        <v>0.5956123333333333</v>
       </c>
       <c r="N9">
-        <v>0.8266939999999999</v>
+        <v>1.786837</v>
       </c>
       <c r="O9">
-        <v>0.3516173010408095</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P9">
-        <v>0.2751786827010647</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q9">
-        <v>9.322270141715666</v>
+        <v>16.94419626301855</v>
       </c>
       <c r="R9">
-        <v>55.933620850294</v>
+        <v>152.497766367167</v>
       </c>
       <c r="S9">
-        <v>0.09118751351259177</v>
+        <v>0.1611813971331507</v>
       </c>
       <c r="T9">
-        <v>0.07683473899299942</v>
+        <v>0.1992599840511173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.55313366666667</v>
+        <v>28.44836366666667</v>
       </c>
       <c r="H10">
-        <v>67.659401</v>
+        <v>85.345091</v>
       </c>
       <c r="I10">
-        <v>0.2593373910859078</v>
+        <v>0.2601409641556676</v>
       </c>
       <c r="J10">
-        <v>0.27921762775668</v>
+        <v>0.2808189484532881</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.057255</v>
+        <v>0.2420945</v>
       </c>
       <c r="N10">
-        <v>0.171765</v>
+        <v>0.484189</v>
       </c>
       <c r="O10">
-        <v>0.04870447486274619</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P10">
-        <v>0.05717480280992528</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q10">
-        <v>1.291279668085</v>
+        <v>6.887192377699833</v>
       </c>
       <c r="R10">
-        <v>11.621517012765</v>
+        <v>41.323154266199</v>
       </c>
       <c r="S10">
-        <v>0.01263089144511377</v>
+        <v>0.06551430782144911</v>
       </c>
       <c r="T10">
-        <v>0.0159642128080433</v>
+        <v>0.05399456828895218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.55313366666667</v>
+        <v>11.6321255</v>
       </c>
       <c r="H11">
-        <v>67.659401</v>
+        <v>23.264251</v>
       </c>
       <c r="I11">
-        <v>0.2593373910859078</v>
+        <v>0.1063678873838119</v>
       </c>
       <c r="J11">
-        <v>0.27921762775668</v>
+        <v>0.07654854457151329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.000222</v>
+        <v>0.12359</v>
       </c>
       <c r="N11">
-        <v>0.000666</v>
+        <v>0.24718</v>
       </c>
       <c r="O11">
-        <v>0.0001888462740289871</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P11">
-        <v>0.0002216890441673812</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q11">
-        <v>0.005006795674</v>
+        <v>1.437614390545</v>
       </c>
       <c r="R11">
-        <v>0.04506116106600001</v>
+        <v>5.75045756218</v>
       </c>
       <c r="S11">
-        <v>4.897490002297193E-05</v>
+        <v>0.01367528399753595</v>
       </c>
       <c r="T11">
-        <v>6.189948901206204E-05</v>
+        <v>0.007513789279823276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.14600466666667</v>
+        <v>11.6321255</v>
       </c>
       <c r="H12">
-        <v>72.438014</v>
+        <v>23.264251</v>
       </c>
       <c r="I12">
-        <v>0.2776537375228087</v>
+        <v>0.1063678873838119</v>
       </c>
       <c r="J12">
-        <v>0.2989380652141034</v>
+        <v>0.07654854457151329</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.109123</v>
+        <v>0.5956123333333333</v>
       </c>
       <c r="N12">
-        <v>0.218246</v>
+        <v>1.786837</v>
       </c>
       <c r="O12">
-        <v>0.09282645027416739</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P12">
-        <v>0.07264676746749893</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q12">
-        <v>2.634884467240667</v>
+        <v>6.928237410681167</v>
       </c>
       <c r="R12">
-        <v>15.809306803444</v>
+        <v>41.569424464087</v>
       </c>
       <c r="S12">
-        <v>0.02577361085959773</v>
+        <v>0.06590474804408432</v>
       </c>
       <c r="T12">
-        <v>0.021716884110793</v>
+        <v>0.05431635526900067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.14600466666667</v>
+        <v>11.6321255</v>
       </c>
       <c r="H13">
-        <v>72.438014</v>
+        <v>23.264251</v>
       </c>
       <c r="I13">
-        <v>0.2776537375228087</v>
+        <v>0.1063678873838119</v>
       </c>
       <c r="J13">
-        <v>0.2989380652141034</v>
+        <v>0.07654854457151329</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5956123333333333</v>
+        <v>0.2420945</v>
       </c>
       <c r="N13">
-        <v>1.786837</v>
+        <v>0.484189</v>
       </c>
       <c r="O13">
-        <v>0.506662927548248</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P13">
-        <v>0.5947780579773438</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q13">
-        <v>14.38165818019089</v>
+        <v>2.81607360685975</v>
       </c>
       <c r="R13">
-        <v>129.434923621718</v>
+        <v>11.264294427439</v>
       </c>
       <c r="S13">
-        <v>0.1406768554980191</v>
+        <v>0.02678785534219166</v>
       </c>
       <c r="T13">
-        <v>0.177801801883549</v>
+        <v>0.01471840002268935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.14600466666667</v>
+        <v>12.80712266666667</v>
       </c>
       <c r="H14">
-        <v>72.438014</v>
+        <v>38.421368</v>
       </c>
       <c r="I14">
-        <v>0.2776537375228087</v>
+        <v>0.117112438437727</v>
       </c>
       <c r="J14">
-        <v>0.2989380652141034</v>
+        <v>0.1264214266277695</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.413347</v>
+        <v>0.12359</v>
       </c>
       <c r="N14">
-        <v>0.8266939999999999</v>
+        <v>0.24718</v>
       </c>
       <c r="O14">
-        <v>0.3516173010408095</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P14">
-        <v>0.2751786827010647</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q14">
-        <v>9.980678590952666</v>
+        <v>1.582832290373333</v>
       </c>
       <c r="R14">
-        <v>59.88407154571599</v>
+        <v>9.496993742240001</v>
       </c>
       <c r="S14">
-        <v>0.09762785781166333</v>
+        <v>0.015056666957208</v>
       </c>
       <c r="T14">
-        <v>0.08226138299482193</v>
+        <v>0.01240917074848208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.14600466666667</v>
+        <v>12.80712266666667</v>
       </c>
       <c r="H15">
-        <v>72.438014</v>
+        <v>38.421368</v>
       </c>
       <c r="I15">
-        <v>0.2776537375228087</v>
+        <v>0.117112438437727</v>
       </c>
       <c r="J15">
-        <v>0.2989380652141034</v>
+        <v>0.1264214266277695</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.057255</v>
+        <v>0.5956123333333333</v>
       </c>
       <c r="N15">
-        <v>0.171765</v>
+        <v>1.786837</v>
       </c>
       <c r="O15">
-        <v>0.04870447486274619</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P15">
-        <v>0.05717480280992528</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q15">
-        <v>1.38247949719</v>
+        <v>7.628080214779555</v>
       </c>
       <c r="R15">
-        <v>12.44231547471</v>
+        <v>68.652721933016</v>
       </c>
       <c r="S15">
-        <v>0.01352297947972717</v>
+        <v>0.07256199157379688</v>
       </c>
       <c r="T15">
-        <v>0.01709172493099695</v>
+        <v>0.08970452881586487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.14600466666667</v>
+        <v>12.80712266666667</v>
       </c>
       <c r="H16">
-        <v>72.438014</v>
+        <v>38.421368</v>
       </c>
       <c r="I16">
-        <v>0.2776537375228087</v>
+        <v>0.117112438437727</v>
       </c>
       <c r="J16">
-        <v>0.2989380652141034</v>
+        <v>0.1264214266277695</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.000222</v>
+        <v>0.2420945</v>
       </c>
       <c r="N16">
-        <v>0.000666</v>
+        <v>0.484189</v>
       </c>
       <c r="O16">
-        <v>0.0001888462740289871</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P16">
-        <v>0.0002216890441673812</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q16">
-        <v>0.005360413036</v>
+        <v>3.100533958425333</v>
       </c>
       <c r="R16">
-        <v>0.048243717324</v>
+        <v>18.603203750552</v>
       </c>
       <c r="S16">
-        <v>5.243387380140479E-05</v>
+        <v>0.02949377990672216</v>
       </c>
       <c r="T16">
-        <v>6.627129394256086E-05</v>
+        <v>0.02430772706342257</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.393856499999998</v>
+        <v>21.391395</v>
       </c>
       <c r="H17">
-        <v>16.787713</v>
+        <v>64.17418499999999</v>
       </c>
       <c r="I17">
-        <v>0.09652054911893862</v>
+        <v>0.1956097786550392</v>
       </c>
       <c r="J17">
-        <v>0.06927973541060431</v>
+        <v>0.2111583330498385</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.109123</v>
+        <v>0.12359</v>
       </c>
       <c r="N17">
-        <v>0.218246</v>
+        <v>0.24718</v>
       </c>
       <c r="O17">
-        <v>0.09282645027416739</v>
+        <v>0.1285659077555129</v>
       </c>
       <c r="P17">
-        <v>0.07264676746749893</v>
+        <v>0.09815718015126641</v>
       </c>
       <c r="Q17">
-        <v>0.9159628028494999</v>
+        <v>2.64376250805</v>
       </c>
       <c r="R17">
-        <v>3.663851211398</v>
+        <v>15.8625750483</v>
       </c>
       <c r="S17">
-        <v>0.008959659953224487</v>
+        <v>0.02514874875864007</v>
       </c>
       <c r="T17">
-        <v>0.005032948828584022</v>
+        <v>0.02072670653761411</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.393856499999998</v>
+        <v>21.391395</v>
       </c>
       <c r="H18">
-        <v>16.787713</v>
+        <v>64.17418499999999</v>
       </c>
       <c r="I18">
-        <v>0.09652054911893862</v>
+        <v>0.1956097786550392</v>
       </c>
       <c r="J18">
-        <v>0.06927973541060431</v>
+        <v>0.2111583330498385</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>1.786837</v>
       </c>
       <c r="O18">
-        <v>0.506662927548248</v>
+        <v>0.6195925261378683</v>
       </c>
       <c r="P18">
-        <v>0.5947780579773438</v>
+        <v>0.7095674460310236</v>
       </c>
       <c r="Q18">
-        <v>4.999484455630165</v>
+        <v>12.740978689205</v>
       </c>
       <c r="R18">
-        <v>29.99690673378099</v>
+        <v>114.668808202845</v>
       </c>
       <c r="S18">
-        <v>0.04890338398516592</v>
+        <v>0.121198356894145</v>
       </c>
       <c r="T18">
-        <v>0.04120606648470345</v>
+        <v>0.1498310790903422</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.393856499999998</v>
+        <v>21.391395</v>
       </c>
       <c r="H19">
-        <v>16.787713</v>
+        <v>64.17418499999999</v>
       </c>
       <c r="I19">
-        <v>0.09652054911893862</v>
+        <v>0.1956097786550392</v>
       </c>
       <c r="J19">
-        <v>0.06927973541060431</v>
+        <v>0.2111583330498385</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.413347</v>
+        <v>0.2420945</v>
       </c>
       <c r="N19">
-        <v>0.8266939999999999</v>
+        <v>0.484189</v>
       </c>
       <c r="O19">
-        <v>0.3516173010408095</v>
+        <v>0.2518415661066188</v>
       </c>
       <c r="P19">
-        <v>0.2751786827010647</v>
+        <v>0.1922753738177099</v>
       </c>
       <c r="Q19">
-        <v>3.469575402705499</v>
+        <v>5.178739076827499</v>
       </c>
       <c r="R19">
-        <v>13.878301610822</v>
+        <v>31.072434460965</v>
       </c>
       <c r="S19">
-        <v>0.03393829497617808</v>
+        <v>0.04926267300225413</v>
       </c>
       <c r="T19">
-        <v>0.0190643063281684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.393856499999998</v>
-      </c>
-      <c r="H20">
-        <v>16.787713</v>
-      </c>
-      <c r="I20">
-        <v>0.09652054911893862</v>
-      </c>
-      <c r="J20">
-        <v>0.06927973541060431</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.057255</v>
-      </c>
-      <c r="N20">
-        <v>0.171765</v>
-      </c>
-      <c r="O20">
-        <v>0.04870447486274619</v>
-      </c>
-      <c r="P20">
-        <v>0.05717480280992528</v>
-      </c>
-      <c r="Q20">
-        <v>0.4805902539074999</v>
-      </c>
-      <c r="R20">
-        <v>2.883541523444999</v>
-      </c>
-      <c r="S20">
-        <v>0.004700982658301805</v>
-      </c>
-      <c r="T20">
-        <v>0.003961055210825099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.393856499999998</v>
-      </c>
-      <c r="H21">
-        <v>16.787713</v>
-      </c>
-      <c r="I21">
-        <v>0.09652054911893862</v>
-      </c>
-      <c r="J21">
-        <v>0.06927973541060431</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.000222</v>
-      </c>
-      <c r="N21">
-        <v>0.000666</v>
-      </c>
-      <c r="O21">
-        <v>0.0001888462740289871</v>
-      </c>
-      <c r="P21">
-        <v>0.0002216890441673812</v>
-      </c>
-      <c r="Q21">
-        <v>0.001863436143</v>
-      </c>
-      <c r="R21">
-        <v>0.011180616858</v>
-      </c>
-      <c r="S21">
-        <v>1.822754606834339E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.535855832334594E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>7.585020666666668</v>
-      </c>
-      <c r="H22">
-        <v>22.755062</v>
-      </c>
-      <c r="I22">
-        <v>0.08721978506842056</v>
-      </c>
-      <c r="J22">
-        <v>0.09390586285409436</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.109123</v>
-      </c>
-      <c r="N22">
-        <v>0.218246</v>
-      </c>
-      <c r="O22">
-        <v>0.09282645027416739</v>
-      </c>
-      <c r="P22">
-        <v>0.07264676746749893</v>
-      </c>
-      <c r="Q22">
-        <v>0.8277002102086669</v>
-      </c>
-      <c r="R22">
-        <v>4.966201261252001</v>
-      </c>
-      <c r="S22">
-        <v>0.008096303041577308</v>
-      </c>
-      <c r="T22">
-        <v>0.006821957382596238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>7.585020666666668</v>
-      </c>
-      <c r="H23">
-        <v>22.755062</v>
-      </c>
-      <c r="I23">
-        <v>0.08721978506842056</v>
-      </c>
-      <c r="J23">
-        <v>0.09390586285409436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.5956123333333333</v>
-      </c>
-      <c r="N23">
-        <v>1.786837</v>
-      </c>
-      <c r="O23">
-        <v>0.506662927548248</v>
-      </c>
-      <c r="P23">
-        <v>0.5947780579773438</v>
-      </c>
-      <c r="Q23">
-        <v>4.517731857654889</v>
-      </c>
-      <c r="R23">
-        <v>40.659586718894</v>
-      </c>
-      <c r="S23">
-        <v>0.04419103164289493</v>
-      </c>
-      <c r="T23">
-        <v>0.05585314674104503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>7.585020666666668</v>
-      </c>
-      <c r="H24">
-        <v>22.755062</v>
-      </c>
-      <c r="I24">
-        <v>0.08721978506842056</v>
-      </c>
-      <c r="J24">
-        <v>0.09390586285409436</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.413347</v>
-      </c>
-      <c r="N24">
-        <v>0.8266939999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.3516173010408095</v>
-      </c>
-      <c r="P24">
-        <v>0.2751786827010647</v>
-      </c>
-      <c r="Q24">
-        <v>3.135245537504667</v>
-      </c>
-      <c r="R24">
-        <v>18.811473225028</v>
-      </c>
-      <c r="S24">
-        <v>0.03066798542311753</v>
-      </c>
-      <c r="T24">
-        <v>0.02584089163809652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.585020666666668</v>
-      </c>
-      <c r="H25">
-        <v>22.755062</v>
-      </c>
-      <c r="I25">
-        <v>0.08721978506842056</v>
-      </c>
-      <c r="J25">
-        <v>0.09390586285409436</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.057255</v>
-      </c>
-      <c r="N25">
-        <v>0.171765</v>
-      </c>
-      <c r="O25">
-        <v>0.04870447486274619</v>
-      </c>
-      <c r="P25">
-        <v>0.05717480280992528</v>
-      </c>
-      <c r="Q25">
-        <v>0.4342803582700001</v>
-      </c>
-      <c r="R25">
-        <v>3.908523224430001</v>
-      </c>
-      <c r="S25">
-        <v>0.004247993829399014</v>
-      </c>
-      <c r="T25">
-        <v>0.005369049191378732</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>7.585020666666668</v>
-      </c>
-      <c r="H26">
-        <v>22.755062</v>
-      </c>
-      <c r="I26">
-        <v>0.08721978506842056</v>
-      </c>
-      <c r="J26">
-        <v>0.09390586285409436</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.000222</v>
-      </c>
-      <c r="N26">
-        <v>0.000666</v>
-      </c>
-      <c r="O26">
-        <v>0.0001888462740289871</v>
-      </c>
-      <c r="P26">
-        <v>0.0002216890441673812</v>
-      </c>
-      <c r="Q26">
-        <v>0.001683874588</v>
-      </c>
-      <c r="R26">
-        <v>0.015154871292</v>
-      </c>
-      <c r="S26">
-        <v>1.64711314317803E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.081790097783737E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>14.10473933333333</v>
-      </c>
-      <c r="H27">
-        <v>42.314218</v>
-      </c>
-      <c r="I27">
-        <v>0.1621897140644263</v>
-      </c>
-      <c r="J27">
-        <v>0.1746228224861022</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.109123</v>
-      </c>
-      <c r="N27">
-        <v>0.218246</v>
-      </c>
-      <c r="O27">
-        <v>0.09282645027416739</v>
-      </c>
-      <c r="P27">
-        <v>0.07264676746749893</v>
-      </c>
-      <c r="Q27">
-        <v>1.539151470271334</v>
-      </c>
-      <c r="R27">
-        <v>9.234908821628002</v>
-      </c>
-      <c r="S27">
-        <v>0.01505549542758289</v>
-      </c>
-      <c r="T27">
-        <v>0.01268578357966621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>14.10473933333333</v>
-      </c>
-      <c r="H28">
-        <v>42.314218</v>
-      </c>
-      <c r="I28">
-        <v>0.1621897140644263</v>
-      </c>
-      <c r="J28">
-        <v>0.1746228224861022</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.5956123333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.786837</v>
-      </c>
-      <c r="O28">
-        <v>0.506662927548248</v>
-      </c>
-      <c r="P28">
-        <v>0.5947780579773438</v>
-      </c>
-      <c r="Q28">
-        <v>8.400956705385111</v>
-      </c>
-      <c r="R28">
-        <v>75.608610348466</v>
-      </c>
-      <c r="S28">
-        <v>0.08217551534609548</v>
-      </c>
-      <c r="T28">
-        <v>0.1038618232368063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>14.10473933333333</v>
-      </c>
-      <c r="H29">
-        <v>42.314218</v>
-      </c>
-      <c r="I29">
-        <v>0.1621897140644263</v>
-      </c>
-      <c r="J29">
-        <v>0.1746228224861022</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.413347</v>
-      </c>
-      <c r="N29">
-        <v>0.8266939999999999</v>
-      </c>
-      <c r="O29">
-        <v>0.3516173010408095</v>
-      </c>
-      <c r="P29">
-        <v>0.2751786827010647</v>
-      </c>
-      <c r="Q29">
-        <v>5.830151689215334</v>
-      </c>
-      <c r="R29">
-        <v>34.980910135292</v>
-      </c>
-      <c r="S29">
-        <v>0.05702870951591419</v>
-      </c>
-      <c r="T29">
-        <v>0.04805247826126746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>14.10473933333333</v>
-      </c>
-      <c r="H30">
-        <v>42.314218</v>
-      </c>
-      <c r="I30">
-        <v>0.1621897140644263</v>
-      </c>
-      <c r="J30">
-        <v>0.1746228224861022</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.057255</v>
-      </c>
-      <c r="N30">
-        <v>0.171765</v>
-      </c>
-      <c r="O30">
-        <v>0.04870447486274619</v>
-      </c>
-      <c r="P30">
-        <v>0.05717480280992528</v>
-      </c>
-      <c r="Q30">
-        <v>0.8075668505300001</v>
-      </c>
-      <c r="R30">
-        <v>7.268101654770001</v>
-      </c>
-      <c r="S30">
-        <v>0.007899364851646842</v>
-      </c>
-      <c r="T30">
-        <v>0.009984025441755482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>14.10473933333333</v>
-      </c>
-      <c r="H31">
-        <v>42.314218</v>
-      </c>
-      <c r="I31">
-        <v>0.1621897140644263</v>
-      </c>
-      <c r="J31">
-        <v>0.1746228224861022</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.000222</v>
-      </c>
-      <c r="N31">
-        <v>0.000666</v>
-      </c>
-      <c r="O31">
-        <v>0.0001888462740289871</v>
-      </c>
-      <c r="P31">
-        <v>0.0002216890441673812</v>
-      </c>
-      <c r="Q31">
-        <v>0.003131252132000001</v>
-      </c>
-      <c r="R31">
-        <v>0.028181269188</v>
-      </c>
-      <c r="S31">
-        <v>3.06289231868937E-05</v>
-      </c>
-      <c r="T31">
-        <v>3.871196660675429E-05</v>
+        <v>0.04060054742188218</v>
       </c>
     </row>
   </sheetData>
